--- a/Sem6/Nuclear_Physics/Expt1/gm1.xlsx
+++ b/Sem6/Nuclear_Physics/Expt1/gm1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Sem6\Nuclear_Physics\Expt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E323B-18EF-45C6-A8F0-E48B9EAAB1CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0494028-498B-4607-999A-1F8DBB708BD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3" xr2:uid="{80CFF2EA-63C2-4903-8801-55AF23FD43F7}"/>
   </bookViews>
@@ -20,11 +20,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Statistics!$E$1:$E$50</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Statistics!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Statistics!$F$1:$F$49</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Statistics!#REF!</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Statistics!$F$1:$F$49</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Statistics!$F$1:$F$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Potential</t>
   </si>
@@ -47,16 +42,10 @@
     <t>Background</t>
   </si>
   <si>
-    <t>Corr</t>
-  </si>
-  <si>
     <t>cs137</t>
   </si>
   <si>
     <t>Distance (cm)</t>
-  </si>
-  <si>
-    <t>Corrected Count</t>
   </si>
   <si>
     <t>Cs137</t>
@@ -88,6 +77,33 @@
   <si>
     <t>100s</t>
   </si>
+  <si>
+    <t>Corrected Counts</t>
+  </si>
+  <si>
+    <t>Distance (d) (cm)</t>
+  </si>
+  <si>
+    <t>Corrected Count in 60s</t>
+  </si>
+  <si>
+    <t>Net Count Rate (R) per second</t>
+  </si>
+  <si>
+    <t>Product $C=Rd^2$</t>
+  </si>
+  <si>
+    <t>$\log(d)$</t>
+  </si>
+  <si>
+    <t>$\log(R)$</t>
+  </si>
+  <si>
+    <t>Average Counts</t>
+  </si>
+  <si>
+    <t>CPS</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +113,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +142,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -156,7 +178,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -168,7 +198,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,7 +302,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Corr</c:v>
+                  <c:v>Corrected Counts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -647,7 +679,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Corrected Count</c:v>
+                  <c:v>Corrected Count in 60s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -722,34 +754,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10369</c:v>
+                  <c:v>9904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7704</c:v>
+                  <c:v>7239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5726</c:v>
+                  <c:v>5261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4422</c:v>
+                  <c:v>3957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3531</c:v>
+                  <c:v>3066</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2868</c:v>
+                  <c:v>2403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2331</c:v>
+                  <c:v>1866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1969</c:v>
+                  <c:v>1504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1731</c:v>
+                  <c:v>1266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1377</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,6 +925,690 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="190429007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inverse Square'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inverse Square'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>660.26666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>754.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>789.15000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>807.88750000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>817.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>811.01249999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>777.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>758.26666666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>759.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>744.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71BA-4C4E-815B-8E6152615AF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2023522415"/>
+        <c:axId val="66663439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2023522415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66663439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66663439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2023522415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Inverse Square'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3979400086720376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47712125471966244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6020599913279624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65321251377534373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69897000433601886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74036268949424389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77815125038364363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84509804001425681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Inverse Square'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2176593812923993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0815273262448049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9429170514135155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8192147998823842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7084209001347128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6026025204202565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4927603890268375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3990965858719797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3242824552976926</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1818435879447726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AD4-484A-86F9-D91A4876CBD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2014089919"/>
+        <c:axId val="62570943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2014089919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62570943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62570943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014089919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1095,6 +1811,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2128,6 +2924,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2680,16 +4508,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2709,6 +4537,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3BE20B-852B-4987-9083-9935E27F7105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF12C32-22FF-4350-B0C9-4C3438043CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3100,7 +5000,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3119,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3153,16 +5053,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>360</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>4302</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>34</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>4268</v>
       </c>
@@ -3334,7 +5234,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3346,39 +5246,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8C8E8F-6ECD-4F69-9B40-C42985828BB3}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" style="2" customWidth="1"/>
-    <col min="4" max="9" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="7" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="2"/>
     <col min="10" max="10" width="10.88671875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -3386,161 +5301,362 @@
         <v>10462</v>
       </c>
       <c r="C2" s="2">
-        <f>B2-93</f>
-        <v>10369</v>
-      </c>
-      <c r="J2" s="2">
-        <v>96</v>
-      </c>
-      <c r="K2" s="5">
-        <f>AVERAGE(J2:J7)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <f>B2-H2</f>
+        <v>9904</v>
+      </c>
+      <c r="D2" s="8">
+        <f>C2/60</f>
+        <v>165.06666666666666</v>
+      </c>
+      <c r="E2" s="12">
+        <f>D2*A2^2</f>
+        <v>660.26666666666665</v>
+      </c>
+      <c r="F2" s="8">
+        <f>LOG(A2)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="G2" s="8">
+        <f>LOG(D2)</f>
+        <v>2.2176593812923993</v>
+      </c>
+      <c r="H2" s="2">
+        <v>558</v>
+      </c>
+      <c r="L2" s="6">
+        <v>576</v>
+      </c>
+      <c r="M2" s="9">
+        <f>AVERAGE(L2:L7)</f>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2.5</v>
       </c>
       <c r="B3" s="2">
         <v>7797</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C11" si="0">B3-93</f>
-        <v>7704</v>
-      </c>
-      <c r="J3" s="2">
-        <v>97</v>
-      </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">B3-H3</f>
+        <v>7239</v>
+      </c>
+      <c r="D3" s="8">
+        <f>C3/60</f>
+        <v>120.65</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E11" si="1">D3*A3^2</f>
+        <v>754.0625</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F11" si="2">LOG(A3)</f>
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G11" si="3">LOG(D3)</f>
+        <v>2.0815273262448049</v>
+      </c>
+      <c r="H3" s="6">
+        <v>558</v>
+      </c>
+      <c r="L3" s="6">
+        <v>582</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>5819</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>5726</v>
-      </c>
-      <c r="J4" s="2">
-        <v>100</v>
-      </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5261</v>
+      </c>
+      <c r="D4" s="8">
+        <f>C4/60</f>
+        <v>87.683333333333337</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="1"/>
+        <v>789.15000000000009</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="3"/>
+        <v>1.9429170514135155</v>
+      </c>
+      <c r="H4" s="6">
+        <v>558</v>
+      </c>
+      <c r="L4" s="6">
+        <v>600</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3.5</v>
       </c>
       <c r="B5" s="2">
         <v>4515</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>4422</v>
-      </c>
-      <c r="J5" s="2">
-        <v>81</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3957</v>
+      </c>
+      <c r="D5" s="8">
+        <f>C5/60</f>
+        <v>65.95</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>807.88750000000005</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="2"/>
+        <v>0.54406804435027567</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="3"/>
+        <v>1.8192147998823842</v>
+      </c>
+      <c r="H5" s="6">
+        <v>558</v>
+      </c>
+      <c r="L5" s="6">
+        <v>486</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>3624</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>3531</v>
-      </c>
-      <c r="J6" s="2">
-        <v>94</v>
-      </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3066</v>
+      </c>
+      <c r="D6" s="8">
+        <f>C6/60</f>
+        <v>51.1</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>817.6</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="3"/>
+        <v>1.7084209001347128</v>
+      </c>
+      <c r="H6" s="6">
+        <v>558</v>
+      </c>
+      <c r="L6" s="6">
+        <v>564</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4.5</v>
       </c>
       <c r="B7" s="2">
         <v>2961</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>2868</v>
-      </c>
-      <c r="J7" s="2">
-        <v>90</v>
-      </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2403</v>
+      </c>
+      <c r="D7" s="8">
+        <f>C7/60</f>
+        <v>40.049999999999997</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="1"/>
+        <v>811.01249999999993</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.65321251377534373</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6026025204202565</v>
+      </c>
+      <c r="H7" s="6">
+        <v>558</v>
+      </c>
+      <c r="L7" s="6">
+        <v>540</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>2424</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1866</v>
+      </c>
+      <c r="D8" s="8">
+        <f>C8/60</f>
+        <v>31.1</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="1"/>
+        <v>777.5</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4927603890268375</v>
+      </c>
+      <c r="H8" s="6">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5.5</v>
       </c>
       <c r="B9" s="2">
         <v>2062</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1504</v>
+      </c>
+      <c r="D9" s="8">
+        <f>C9/60</f>
+        <v>25.066666666666666</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="1"/>
+        <v>758.26666666666665</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.74036268949424389</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="3"/>
+        <v>1.3990965858719797</v>
+      </c>
+      <c r="H9" s="6">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>1824</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1266</v>
+      </c>
+      <c r="D10" s="8">
+        <f>C10/60</f>
+        <v>21.1</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="1"/>
+        <v>759.6</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="3"/>
+        <v>1.3242824552976926</v>
+      </c>
+      <c r="H10" s="6">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>1470</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>1377</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="D11" s="8">
+        <f>C11/60</f>
+        <v>15.2</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="1"/>
+        <v>744.8</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>1.1818435879447726</v>
+      </c>
+      <c r="H11" s="6">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="M2:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3549,10 +5665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6CD45-DC51-4487-853C-28C1B4100E55}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3560,236 +5676,255 @@
     <col min="1" max="1" width="10.5546875" style="2" customWidth="1"/>
     <col min="2" max="8" width="8.88671875" style="2"/>
     <col min="9" max="9" width="9.109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>83</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>83</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>83</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="B4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
         <v>10</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>738</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <f>H4-83</f>
         <v>655</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="11">
         <f>AVERAGE(I4:I6)</f>
         <v>670.66666666666663</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2">
+      <c r="K4" s="11">
+        <f>J4/60</f>
+        <v>11.177777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="6">
         <v>766</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <f t="shared" ref="I5:I9" si="0">H5-83</f>
         <v>683</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="L5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="M5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="6">
         <v>757</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>674</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="L6" s="2" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="M6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="N6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>2306</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>2223</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="9">
         <f>AVERAGE(I7:I9)</f>
         <v>2224</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2">
+      <c r="K7" s="11">
+        <f>J7/60</f>
+        <v>37.06666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6">
         <v>2309</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>2226</v>
       </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2">
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6">
         <v>2306</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>2223</v>
       </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="J9" s="9"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10">
         <v>5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="7">
         <v>96</v>
       </c>
-      <c r="I10" s="4">
-        <f>H10-83</f>
+      <c r="I10" s="7">
+        <f t="shared" ref="I10:I15" si="1">H10-83</f>
         <v>13</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="10">
         <f>AVERAGE(I10:I12)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="7">
         <v>92</v>
       </c>
-      <c r="I11" s="4">
-        <f>H11-83</f>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4">
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="7">
         <v>97</v>
       </c>
-      <c r="I12" s="4">
-        <f>H12-83</f>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
         <v>10</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="7">
         <v>86</v>
       </c>
-      <c r="I13" s="4">
-        <f>H13-83</f>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="10">
         <f>AVERAGE(I13:I15)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="7">
         <v>86</v>
       </c>
-      <c r="I14" s="4">
-        <f>H14-83</f>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4">
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7">
         <v>86</v>
       </c>
-      <c r="I15" s="4">
-        <f>H15-83</f>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K9"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G10:G12"/>
@@ -3826,10 +5961,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1">
         <v>1135</v>
@@ -4091,13 +6226,13 @@
       <c r="C11">
         <v>132</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <v>1102</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
@@ -4107,197 +6242,197 @@
         <f>AVERAGE(C2:C11)</f>
         <v>113.9</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
         <v>1129</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <v>1115</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <v>1102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="8">
+      <c r="E15" s="4">
         <v>1108</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="8">
+      <c r="E16" s="4">
         <v>1106</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="8">
+      <c r="E17" s="4">
         <v>1129</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="8">
+      <c r="E18" s="4">
         <v>1095</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="8">
+      <c r="E19" s="4">
         <v>1106</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="8">
+      <c r="E20" s="4">
         <v>1082</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="8">
+      <c r="E21" s="4">
         <v>1048</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="8">
+      <c r="E22" s="4">
         <v>1113</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="8">
+      <c r="E23" s="4">
         <v>1117</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="8">
+      <c r="E24" s="4">
         <v>1085</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="8">
+      <c r="E25" s="4">
         <v>1145</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="8">
+      <c r="E26" s="4">
         <v>1070</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="8">
+      <c r="E27" s="4">
         <v>1100</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="8">
+      <c r="E28" s="4">
         <v>1096</v>
       </c>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="8">
+      <c r="E29" s="4">
         <v>1130</v>
       </c>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="8">
+      <c r="E30" s="4">
         <v>1129</v>
       </c>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="8">
+      <c r="E31" s="4">
         <v>1103</v>
       </c>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="8">
+      <c r="E32" s="4">
         <v>1107</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="8">
+      <c r="E33" s="4">
         <v>1082</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="8">
+      <c r="E34" s="4">
         <v>1060</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="8">
+      <c r="E35" s="4">
         <v>1093</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="8">
+      <c r="E36" s="4">
         <v>1103</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="8">
+      <c r="E37" s="4">
         <v>1124</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="8">
+      <c r="E38" s="4">
         <v>1124</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="8">
+      <c r="E39" s="4">
         <v>1092</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="8">
+      <c r="E40" s="4">
         <v>1093</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="8">
+      <c r="E41" s="4">
         <v>1079</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="8">
+      <c r="E42" s="4">
         <v>1071</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="8">
+      <c r="E43" s="4">
         <v>1065</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="8">
+      <c r="E44" s="4">
         <v>1139</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="8">
+      <c r="E45" s="4">
         <v>1089</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="8">
+      <c r="E46" s="4">
         <v>1091</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="8">
+      <c r="E47" s="4">
         <v>1074</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="8">
+      <c r="E48" s="4">
         <v>1115</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="8">
+      <c r="E49" s="4">
         <v>1067</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="8">
+      <c r="E50" s="4">
         <v>1095</v>
       </c>
     </row>

--- a/Sem6/Nuclear_Physics/Expt1/gm1.xlsx
+++ b/Sem6/Nuclear_Physics/Expt1/gm1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Sem6\Nuclear_Physics\Expt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0494028-498B-4607-999A-1F8DBB708BD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9A2BC-EBAB-4F21-93CA-233842F26527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3" xr2:uid="{80CFF2EA-63C2-4903-8801-55AF23FD43F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{80CFF2EA-63C2-4903-8801-55AF23FD43F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Statistics" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Statistics!$E$1:$E$50</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Statistics!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Statistics!$E$1:$E$100</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Statistics!$F$2:$F$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Potential</t>
   </si>
@@ -104,6 +106,12 @@
   <si>
     <t>CPS</t>
   </si>
+  <si>
+    <t>Corrected</t>
+  </si>
+  <si>
+    <t>Std. Dev.</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +121,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +139,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +180,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -189,16 +189,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1662,7 +1665,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1670,7 +1673,7 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{8389C619-A54F-4B44-A4C9-FC19A876B7BB}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{3D9574FD-ADFB-45E4-B5CA-FD08B45054AA}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
@@ -4621,25 +4624,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Chart 3">
+            <xdr:cNvPr id="2" name="Chart 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE08C34-6DFD-4DA8-A10E-7EF706DF29C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F642366-AAFB-428A-963D-1A89710BDED4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4666,7 +4669,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="899160" y="2377440"/>
+              <a:off x="4312920" y="419100"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4997,10 +5000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C7B731-C814-423C-98CB-1DC57D0DD4D5}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5008,7 +5011,7 @@
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5022,7 +5025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>343</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>344</v>
       </c>
@@ -5052,22 +5055,22 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>360</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4302</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>34</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>4268</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>390</v>
       </c>
@@ -5082,7 +5085,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>420</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>4886</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>450</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>5081</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>480</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>510</v>
       </c>
@@ -5141,8 +5144,12 @@
         <f t="shared" si="0"/>
         <v>5287</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <f>_xlfn.STDEV.P(D5:D13)</f>
+        <v>166.75064550932862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>540</v>
       </c>
@@ -5157,7 +5164,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>570</v>
       </c>
@@ -5172,7 +5179,7 @@
         <v>5228</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>600</v>
       </c>
@@ -5187,7 +5194,7 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>630</v>
       </c>
@@ -5202,7 +5209,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>660</v>
       </c>
@@ -5217,7 +5224,7 @@
         <v>9483</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>690</v>
       </c>
@@ -5246,10 +5253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8C8E8F-6ECD-4F69-9B40-C42985828BB3}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5304,29 +5311,29 @@
         <f>B2-H2</f>
         <v>9904</v>
       </c>
-      <c r="D2" s="8">
-        <f>C2/60</f>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:D11" si="0">C2/60</f>
         <v>165.06666666666666</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <f>D2*A2^2</f>
         <v>660.26666666666665</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>LOG(A2)</f>
         <v>0.3010299956639812</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>LOG(D2)</f>
         <v>2.2176593812923993</v>
       </c>
       <c r="H2" s="2">
         <v>558</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>576</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <f>AVERAGE(L2:L7)</f>
         <v>558</v>
       </c>
@@ -5338,33 +5345,33 @@
       <c r="B3" s="2">
         <v>7797</v>
       </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C11" si="0">B3-H3</f>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C11" si="1">B3-H3</f>
         <v>7239</v>
       </c>
-      <c r="D3" s="8">
-        <f>C3/60</f>
+      <c r="D3" s="7">
+        <f t="shared" si="0"/>
         <v>120.65</v>
       </c>
-      <c r="E3" s="12">
-        <f t="shared" ref="E3:E11" si="1">D3*A3^2</f>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E11" si="2">D3*A3^2</f>
         <v>754.0625</v>
       </c>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3:F11" si="2">LOG(A3)</f>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F11" si="3">LOG(A3)</f>
         <v>0.3979400086720376</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G11" si="3">LOG(D3)</f>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G11" si="4">LOG(D3)</f>
         <v>2.0815273262448049</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>558</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>582</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -5373,33 +5380,33 @@
       <c r="B4" s="2">
         <v>5819</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
+      <c r="C4" s="5">
+        <f t="shared" si="1"/>
         <v>5261</v>
       </c>
-      <c r="D4" s="8">
-        <f>C4/60</f>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
         <v>87.683333333333337</v>
       </c>
-      <c r="E4" s="12">
-        <f t="shared" si="1"/>
+      <c r="E4" s="9">
+        <f t="shared" si="2"/>
         <v>789.15000000000009</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" si="2"/>
+      <c r="F4" s="7">
+        <f t="shared" si="3"/>
         <v>0.47712125471966244</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="3"/>
+      <c r="G4" s="7">
+        <f t="shared" si="4"/>
         <v>1.9429170514135155</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>558</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>600</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -5408,33 +5415,33 @@
       <c r="B5" s="2">
         <v>4515</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
+      <c r="C5" s="5">
+        <f t="shared" si="1"/>
         <v>3957</v>
       </c>
-      <c r="D5" s="8">
-        <f>C5/60</f>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
         <v>65.95</v>
       </c>
-      <c r="E5" s="12">
-        <f t="shared" si="1"/>
+      <c r="E5" s="9">
+        <f t="shared" si="2"/>
         <v>807.88750000000005</v>
       </c>
-      <c r="F5" s="8">
-        <f t="shared" si="2"/>
+      <c r="F5" s="7">
+        <f t="shared" si="3"/>
         <v>0.54406804435027567</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="3"/>
+      <c r="G5" s="7">
+        <f t="shared" si="4"/>
         <v>1.8192147998823842</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>558</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>486</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -5443,33 +5450,33 @@
       <c r="B6" s="2">
         <v>3624</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
         <v>3066</v>
       </c>
-      <c r="D6" s="8">
-        <f>C6/60</f>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
         <v>51.1</v>
       </c>
-      <c r="E6" s="12">
-        <f t="shared" si="1"/>
+      <c r="E6" s="9">
+        <f t="shared" si="2"/>
         <v>817.6</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" si="2"/>
+      <c r="F6" s="7">
+        <f t="shared" si="3"/>
         <v>0.6020599913279624</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" si="3"/>
+      <c r="G6" s="7">
+        <f t="shared" si="4"/>
         <v>1.7084209001347128</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>558</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>564</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -5478,33 +5485,33 @@
       <c r="B7" s="2">
         <v>2961</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
         <v>2403</v>
       </c>
-      <c r="D7" s="8">
-        <f>C7/60</f>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
         <v>40.049999999999997</v>
       </c>
-      <c r="E7" s="12">
-        <f t="shared" si="1"/>
+      <c r="E7" s="9">
+        <f t="shared" si="2"/>
         <v>811.01249999999993</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="2"/>
+      <c r="F7" s="7">
+        <f t="shared" si="3"/>
         <v>0.65321251377534373</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="3"/>
+      <c r="G7" s="7">
+        <f t="shared" si="4"/>
         <v>1.6026025204202565</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>558</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>540</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -5513,27 +5520,27 @@
       <c r="B8" s="2">
         <v>2424</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
         <v>1866</v>
       </c>
-      <c r="D8" s="8">
-        <f>C8/60</f>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
         <v>31.1</v>
       </c>
-      <c r="E8" s="12">
-        <f t="shared" si="1"/>
+      <c r="E8" s="9">
+        <f t="shared" si="2"/>
         <v>777.5</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="2"/>
+      <c r="F8" s="7">
+        <f t="shared" si="3"/>
         <v>0.69897000433601886</v>
       </c>
-      <c r="G8" s="8">
-        <f t="shared" si="3"/>
+      <c r="G8" s="7">
+        <f t="shared" si="4"/>
         <v>1.4927603890268375</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>558</v>
       </c>
     </row>
@@ -5544,27 +5551,27 @@
       <c r="B9" s="2">
         <v>2062</v>
       </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
         <v>1504</v>
       </c>
-      <c r="D9" s="8">
-        <f>C9/60</f>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
         <v>25.066666666666666</v>
       </c>
-      <c r="E9" s="12">
-        <f t="shared" si="1"/>
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
         <v>758.26666666666665</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="2"/>
+      <c r="F9" s="7">
+        <f t="shared" si="3"/>
         <v>0.74036268949424389</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="3"/>
+      <c r="G9" s="7">
+        <f t="shared" si="4"/>
         <v>1.3990965858719797</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>558</v>
       </c>
     </row>
@@ -5575,27 +5582,27 @@
       <c r="B10" s="2">
         <v>1824</v>
       </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
         <v>1266</v>
       </c>
-      <c r="D10" s="8">
-        <f>C10/60</f>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
         <v>21.1</v>
       </c>
-      <c r="E10" s="12">
-        <f t="shared" si="1"/>
+      <c r="E10" s="9">
+        <f t="shared" si="2"/>
         <v>759.6</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="2"/>
+      <c r="F10" s="7">
+        <f t="shared" si="3"/>
         <v>0.77815125038364363</v>
       </c>
-      <c r="G10" s="8">
-        <f t="shared" si="3"/>
+      <c r="G10" s="7">
+        <f t="shared" si="4"/>
         <v>1.3242824552976926</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>558</v>
       </c>
     </row>
@@ -5606,52 +5613,124 @@
       <c r="B11" s="2">
         <v>1470</v>
       </c>
-      <c r="C11" s="6">
-        <f t="shared" si="0"/>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
         <v>912</v>
       </c>
-      <c r="D11" s="8">
-        <f>C11/60</f>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
         <v>15.2</v>
       </c>
-      <c r="E11" s="12">
-        <f t="shared" si="1"/>
+      <c r="E11" s="9">
+        <f t="shared" si="2"/>
         <v>744.8</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="2"/>
+      <c r="F11" s="7">
+        <f t="shared" si="3"/>
         <v>0.84509804001425681</v>
       </c>
-      <c r="G11" s="8">
-        <f t="shared" si="3"/>
+      <c r="G11" s="7">
+        <f t="shared" si="4"/>
         <v>1.1818435879447726</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>165.06666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E15" s="8">
+        <v>120.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8">
+        <v>87.683333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>65.95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="8">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E19" s="8">
+        <v>40.049999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E21" s="8">
+        <v>25.066666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="3">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="3">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8">
+        <v>15.2</v>
       </c>
     </row>
   </sheetData>
@@ -5659,16 +5738,17 @@
     <mergeCell ref="M2:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6CD45-DC51-4487-853C-28C1B4100E55}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5677,11 +5757,11 @@
     <col min="2" max="8" width="8.88671875" style="2"/>
     <col min="9" max="9" width="9.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="2"/>
-    <col min="11" max="11" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="12" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5689,53 +5769,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>83</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>83</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="10"/>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>83</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="B4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>10</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>738</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>H4-83</f>
         <v>655</v>
       </c>
@@ -5747,60 +5830,66 @@
         <f>J4/60</f>
         <v>11.177777777777777</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6">
+      <c r="L4" s="10">
+        <f>_xlfn.STDEV.P(I4:I6)/60</f>
+        <v>0.1945237933334622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="5">
         <v>766</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" ref="I5:I9" si="0">H5-83</f>
         <v>683</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="10"/>
+      <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="5">
         <v>757</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>674</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="10"/>
+      <c r="N6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F7" s="9" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2306</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>2223</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <f>AVERAGE(I7:I9)</f>
         <v>2224</v>
       </c>
@@ -5808,136 +5897,144 @@
         <f>J7/60</f>
         <v>37.06666666666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6">
+      <c r="L7" s="10">
+        <f>_xlfn.STDEV.P(I7:I9)/60</f>
+        <v>2.3570226039551587E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5">
         <v>2309</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>2226</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6">
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="5">
         <v>2306</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>2223</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F10" s="10" t="s">
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="12">
         <v>5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>96</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" ref="I10:I15" si="1">H10-83</f>
         <v>13</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="12">
         <f>AVERAGE(I10:I12)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="6">
         <v>92</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7">
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="6">
         <v>97</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F13" s="10" t="s">
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="12">
         <v>10</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>86</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="12">
         <f>AVERAGE(I13:I15)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="6">
         <v>86</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7">
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="6">
         <v>86</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="J10:J12"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="J7:J9"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F10:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5945,10 +6042,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EE6DC7-74FD-4C49-A014-415297011FB9}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5956,7 +6053,7 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5966,23 +6063,14 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="E1">
-        <v>1135</v>
-      </c>
-      <c r="F1">
-        <v>1102</v>
-      </c>
-      <c r="G1">
-        <v>1048</v>
-      </c>
-      <c r="H1">
-        <v>1103</v>
-      </c>
-      <c r="I1">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5993,22 +6081,14 @@
         <v>110</v>
       </c>
       <c r="E2">
-        <v>1108</v>
+        <v>1026</v>
       </c>
       <c r="F2">
-        <v>1129</v>
-      </c>
-      <c r="G2">
-        <v>1113</v>
-      </c>
-      <c r="H2">
-        <v>1107</v>
-      </c>
-      <c r="I2">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <f>E2+114</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6019,22 +6099,14 @@
         <v>112</v>
       </c>
       <c r="E3">
-        <v>1119</v>
+        <v>981</v>
       </c>
       <c r="F3">
-        <v>1115</v>
-      </c>
-      <c r="G3">
-        <v>1117</v>
-      </c>
-      <c r="H3">
-        <v>1082</v>
-      </c>
-      <c r="I3">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:F66" si="0">E3+114</f>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6045,22 +6117,14 @@
         <v>115</v>
       </c>
       <c r="E4">
-        <v>1144</v>
+        <v>977</v>
       </c>
       <c r="F4">
-        <v>1102</v>
-      </c>
-      <c r="G4">
-        <v>1085</v>
-      </c>
-      <c r="H4">
-        <v>1060</v>
-      </c>
-      <c r="I4">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6071,22 +6135,14 @@
         <v>131</v>
       </c>
       <c r="E5">
-        <v>1137</v>
+        <v>929</v>
       </c>
       <c r="F5">
-        <v>1108</v>
-      </c>
-      <c r="G5">
-        <v>1145</v>
-      </c>
-      <c r="H5">
-        <v>1093</v>
-      </c>
-      <c r="I5">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6097,22 +6153,14 @@
         <v>131</v>
       </c>
       <c r="E6">
-        <v>1080</v>
+        <v>987</v>
       </c>
       <c r="F6">
-        <v>1106</v>
-      </c>
-      <c r="G6">
-        <v>1070</v>
-      </c>
-      <c r="H6">
-        <v>1103</v>
-      </c>
-      <c r="I6">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6123,22 +6171,14 @@
         <v>103</v>
       </c>
       <c r="E7">
-        <v>1119</v>
+        <v>980</v>
       </c>
       <c r="F7">
-        <v>1129</v>
-      </c>
-      <c r="G7">
-        <v>1100</v>
-      </c>
-      <c r="H7">
-        <v>1124</v>
-      </c>
-      <c r="I7">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6149,22 +6189,14 @@
         <v>108</v>
       </c>
       <c r="E8">
-        <v>1096</v>
+        <v>976</v>
       </c>
       <c r="F8">
-        <v>1095</v>
-      </c>
-      <c r="G8">
-        <v>1096</v>
-      </c>
-      <c r="H8">
-        <v>1124</v>
-      </c>
-      <c r="I8">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6175,22 +6207,14 @@
         <v>89</v>
       </c>
       <c r="E9">
-        <v>1097</v>
+        <v>994</v>
       </c>
       <c r="F9">
-        <v>1106</v>
-      </c>
-      <c r="G9">
-        <v>1130</v>
-      </c>
-      <c r="H9">
-        <v>1092</v>
-      </c>
-      <c r="I9">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6201,22 +6225,14 @@
         <v>108</v>
       </c>
       <c r="E10">
-        <v>1108</v>
+        <v>997</v>
       </c>
       <c r="F10">
-        <v>1082</v>
-      </c>
-      <c r="G10">
-        <v>1129</v>
-      </c>
-      <c r="H10">
-        <v>1093</v>
-      </c>
-      <c r="I10">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6226,11 +6242,15 @@
       <c r="C11">
         <v>132</v>
       </c>
-      <c r="E11" s="4">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>964</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6242,198 +6262,813 @@
         <f>AVERAGE(C2:C11)</f>
         <v>113.9</v>
       </c>
-      <c r="E12" s="4">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E13" s="4">
+      <c r="E12">
+        <v>968</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>977</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1003</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>959</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>963</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1004</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1022</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>987</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>972</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>1012</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>981</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>1003</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>1022</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>1001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
         <v>1115</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E14" s="4">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="4">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>989</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>1004</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>973</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>984</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>975</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>983</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>977</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>983</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>979</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>989</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>989</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>994</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
         <v>1108</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="4">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>1018</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>953</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>1016</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>982</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>960</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>984</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>990</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>1011</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>964</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>992</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
         <v>1106</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="4">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="4">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="4">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="4">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="4">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="4">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>990</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>950</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>961</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>1001</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>1003</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>1011</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>999</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
         <v>1113</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="4">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>996</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>990</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>1014</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>969</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>984</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>996</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>953</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>1016</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>970</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>986</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>1035</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>969</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" si="1">E67+114</f>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>976</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>1022</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>964</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>978</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>999</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>998</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>1001</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>996</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>1017</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>1010</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>1001</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>972</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>972</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>946</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>1003</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
         <v>1117</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="4">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="4">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="4">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="4">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="4">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>947</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>1007</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>1028</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>964</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>972</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>977</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>1006</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>969</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>985</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>976</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>982</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
         <v>1096</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="4">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>1016</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
         <v>1130</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="4">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="4">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>966</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>989</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
         <v>1103</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="4">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>993</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
         <v>1107</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="4">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="4">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="4">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="4">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="4">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="4">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="4">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="4">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="4">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="4">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="4">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="4">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="4">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="4">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="4">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>1006</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>960</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
         <v>1074</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="4">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="4">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="4">
-        <v>1095</v>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>1012</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>997</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
